--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2895.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2895.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.210429802194791</v>
+        <v>1.76089084148407</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.888330578804016</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.038364887237549</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.919306993484497</v>
       </c>
       <c r="E1">
-        <v>1.201116792610606</v>
+        <v>3.242496728897095</v>
       </c>
     </row>
   </sheetData>
